--- a/Testy cz.3. edam.xlsx
+++ b/Testy cz.3. edam.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Desktop\nagrania błędów\EDAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkolo\Documents\GitHub\Testy-manualne-danych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6661186C-AF1F-47F4-B81B-081D172C0B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04324CB-12EB-4C29-8C53-5E3193A68404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D45053DB-2BD6-4B84-9BDD-4350CD492711}"/>
   </bookViews>
@@ -83,9 +83,6 @@
     <t>MOBILE EDGE</t>
   </si>
   <si>
-    <t>http://nowaenergy.instrat.pl/wordpress/en/prices-electricity-dam/</t>
-  </si>
-  <si>
     <t>Bug nr 5-edam-firefox, Bug nr6-edam-firefox</t>
   </si>
   <si>
@@ -108,13 +105,16 @@
   </si>
   <si>
     <t>Występują również w EDGE: Bug nr1-edam-chrome; Bug nr2-edam-chrome, Bug nr3-edam-chrome, Bug nr4-edam-chrome, Bug nr 5-edam-firefox, Bug nr6-edam-firefox, Bug nr9-edam-chrome</t>
+  </si>
+  <si>
+    <t>http:// xxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,15 +147,6 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -177,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -508,19 +499,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -592,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -613,35 +591,80 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -697,60 +720,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1069,7 +1039,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,11 +1060,11 @@
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1106,178 +1076,178 @@
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="C8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="43"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="C12" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1286,7 +1256,7 @@
       <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,7 +1265,7 @@
       <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
@@ -1304,31 +1274,31 @@
       <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="40"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
@@ -1337,7 +1307,7 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +1316,7 @@
       <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1355,31 +1325,31 @@
       <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
+      <c r="C27" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1388,7 +1358,7 @@
       <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,7 +1367,7 @@
       <c r="E30" s="16"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
@@ -1406,39 +1376,18 @@
       <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
+      <c r="C32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C2:E2"/>
@@ -1450,17 +1399,35 @@
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C31:E31"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" xr:uid="{BDBF9822-9708-4E10-9D90-E737A1459BC7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>